--- a/books/lista-evaporadores.xlsx
+++ b/books/lista-evaporadores.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Lista de Evaporadores" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -375,11 +375,233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Lista de Evaporadores"/>
-  <dimension ref="A1"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>ABREV.</v>
+      </c>
+      <c r="B1" t="str">
+        <v>NOMBRE</v>
+      </c>
+      <c r="C1" t="str">
+        <v>UBICACIÓN</v>
+      </c>
+      <c r="D1" t="str">
+        <v>TAMAÑO</v>
+      </c>
+      <c r="E1" t="str">
+        <v>MODELO</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>HTRL</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Ev1-1</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Línea de Líquido</v>
+      </c>
+      <c r="D2" t="str">
+        <v>1/2"</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Válvula de Globo SW,HW.</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>HTRL</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Ev1-2</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Línea de Líquido</v>
+      </c>
+      <c r="D3" t="str">
+        <v>1/2"</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Válvula Pilotada CK2 W/Pilot 110V</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>HTRS</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Ev1-3</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Línea de Succión</v>
+      </c>
+      <c r="D4" t="str">
+        <v>1"</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Válvula Pilotada CK2 W/Pilot 110V</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>HTRS</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Ev1-4</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Línea de Succión</v>
+      </c>
+      <c r="D5" t="str">
+        <v>1"</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Válvula de Globo SW,HW.</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>DC</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Ev1-5</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Línea de Descongelamiento</v>
+      </c>
+      <c r="D6" t="str">
+        <v>1/2"</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Solenoide W/ST S8F SW FLG 110V</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>DC</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Ev1-6</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Línea de Descongelamiento</v>
+      </c>
+      <c r="D7" t="str">
+        <v>1/2"</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Válvula reguladora A4A</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>DC</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Ev1-7</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Línea de Descongelamiento</v>
+      </c>
+      <c r="D8" t="str">
+        <v>1/2"</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Válvula Manómetro</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>DC</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Ev1-8</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Línea de Descongelamiento</v>
+      </c>
+      <c r="D9" t="str">
+        <v>1/2"</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Manómetro 150 Psi</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>DC</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Ev1-9</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Línea de Descongelamiento</v>
+      </c>
+      <c r="D10" t="str">
+        <v>1/2"</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Válvula Check CK4A</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>HGL</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Ev1-10</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Línea de Gas Caliente</v>
+      </c>
+      <c r="D11" t="str">
+        <v>1/2"</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Válvula de Globo SW,HW.</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>HGL</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Ev1-11</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Línea de Gas Caliente</v>
+      </c>
+      <c r="D12" t="str">
+        <v>1/2"</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Solenoide W/ST S8F SW FLG 110V</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>HGL</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Ev1-12</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Línea de Gas Caliente</v>
+      </c>
+      <c r="D13" t="str">
+        <v>1/2"</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Válvula de Globo SW,HW.</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>